--- a/Торговля/trade.xlsx
+++ b/Торговля/trade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusdad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusdad\Desktop\happy-work\Торговля\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67EEDA0-BC55-4570-B3FE-E005E3B148E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E585F0-74E4-4D0C-968A-9FFE3A5D11BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9C227F9-6D44-4D1E-81E9-3A39622300AE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Инструмент</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>Комментарии</t>
+  </si>
+  <si>
+    <t>Выявление тренда</t>
+  </si>
+  <si>
+    <t>Индекс МосБиржи</t>
+  </si>
+  <si>
+    <t>РТС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 </t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Данила</t>
+  </si>
+  <si>
+    <t>Сравнительно легко. Так как тренд проглядывается, если знаешь, что инфляция растет. Необходимы более сложные и точечные технические индикаторы</t>
   </si>
 </sst>
 </file>
@@ -70,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,11 +114,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -105,6 +163,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572BA979-1DFE-4994-A8D3-DE3C0FC6029B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,9 +509,10 @@
     <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,106 +528,155 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>